--- a/medicine/Mort/Cimetière_du_Poblenou/Cimetière_du_Poblenou.xlsx
+++ b/medicine/Mort/Cimetière_du_Poblenou/Cimetière_du_Poblenou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Poblenou</t>
+          <t>Cimetière_du_Poblenou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Poblenou (en catalan : cementeri del Poblenou) est un cimetière monumental de la ville de Barcelone, situé dans le quartier du Poblenou, dans l'arrondissement de Sant Martí.
-Il est connu notamment pour accueillir la célèbre statue Le Baiser de la Mort et les tombes de personnalités illustres, notamment issues de la bourgeoisie catalane[1].
+Il est connu notamment pour accueillir la célèbre statue Le Baiser de la Mort et les tombes de personnalités illustres, notamment issues de la bourgeoisie catalane.
 Localisé près du port olympique et mis en lumière au niveau international à l'occasion des Jeux olympiques, le cimetière est également connu sous les noms de cimetière général de Barcelone, cimetière de l'Est, cimetière du Levant ou Vieux Cimetière.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Poblenou</t>
+          <t>Cimetière_du_Poblenou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du Poblenou est inauguré en 1775 par Josep Climent, êvêque de Barcelone, sur des terrains inhabités près de la plage de la Mar Bella. Il est construit pour pallier les problèmes d'insalubrité occasionnés par la densité de la cité, alors entourée de murailles. Il est alors le premier cimetière barcelonais construit hors les murs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Poblenou est inauguré en 1775 par Josep Climent, êvêque de Barcelone, sur des terrains inhabités près de la plage de la Mar Bella. Il est construit pour pallier les problèmes d'insalubrité occasionnés par la densité de la cité, alors entourée de murailles. Il est alors le premier cimetière barcelonais construit hors les murs.
 Détruit par les troupes impériales durant les guerres napoléoniennes, il est reconstruit en 1813 sous la direction du jeune architecte italien Antonio Ginesi et inauguré par l'évêque Pablo de Sichar le 15 avril 1819.
 En 1821, il accueille les corps des victimes de l'épidémie de fièvre jaune qui fait 6 000 morts à Barcelone.
-Il connaît un agrandissement majeur en 1849, sous la conduite de Joan Nolla, qui le parsème de panthéons et de monuments funéraires, œuvres d'architectes et de sculpteurs célèbres de l'époque qui mettent en évidence l'opulence et le prestige social[3] de la bourgeoisie barcelonaise du 19e siècle[4].
+Il connaît un agrandissement majeur en 1849, sous la conduite de Joan Nolla, qui le parsème de panthéons et de monuments funéraires, œuvres d'architectes et de sculpteurs célèbres de l'époque qui mettent en évidence l'opulence et le prestige social de la bourgeoisie barcelonaise du 19e siècle.
 À la suite de la forte industrialisation et du développement démographique de la ville, la municipalité de Barcelone ouvre le 17 mars 1883 le cimetière de Montjuïc, déclassant le cimetière de Poblenou au rang de cimetière secondaire.
 En 1888, il est de nouveau agrandi par Leandre Albareda.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Poblenou</t>
+          <t>Cimetière_du_Poblenou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +563,14 @@
           <t>Patrimoine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les formes néoclassiques, les espaces d'enterrements égalitaires et la recherche de sérénité reflètent les goûts esthétiques et les aspirations politiques de la société catalane de l'époque.
-En 2004, la Mairie de Barcelone créée la "Route des Cimetières", pour faire connaître l'attrait monumental et touristique des cimetières de la ville autres que le célèbre cimetière de Montjuïc[5].
-Le cimetière du Poblenou est particulièrement célèbre pour accueillir l'œuvre Le Baiser de la Mort, du sculpteur Jaume Barba[6].
-Il abrite également les sépultures des familles de Pablo Picasso (sa mère María Picasso, son père José Ruiz et sa sœur Lola Ruiz Picasso y sont inhumés) et de Salvador Dalí[7].
+En 2004, la Mairie de Barcelone créée la "Route des Cimetières", pour faire connaître l'attrait monumental et touristique des cimetières de la ville autres que le célèbre cimetière de Montjuïc.
+Le cimetière du Poblenou est particulièrement célèbre pour accueillir l'œuvre Le Baiser de la Mort, du sculpteur Jaume Barba.
+Il abrite également les sépultures des familles de Pablo Picasso (sa mère María Picasso, son père José Ruiz et sa sœur Lola Ruiz Picasso y sont inhumés) et de Salvador Dalí.
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Poblenou</t>
+          <t>Cimetière_du_Poblenou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est desservi par les stations Poblenou et Llacuna du métro de Barcelone.
 La porte principale du cimetière est située sur l'avinguda d'Icària, qui donne aujourd'hui accès au village olympique et au port olympique construits à l'occasion des Jeux Olympiques d'été de 1992, et aux plages de Barcelone, notamment à la plage historique du Somorrostro et à la plage touristique de la Nova Icària.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Poblenou</t>
+          <t>Cimetière_du_Poblenou</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Antonio de Capmany y de Montpalau (1742-1813), historien, érudit et littérateur
